--- a/data/Stress-ML2.xlsx
+++ b/data/Stress-ML2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghrms\PycharmProjects\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA79BCB1-5D47-4A05-B2D6-28B2BF7E3890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED9211C-FF37-49BB-9586-0D56F079FB06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="5220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,19 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>dasdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,22 +368,22 @@
   <dimension ref="A1:B1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>9.9020799999999998</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.42E-3</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>15.62196</v>
+        <v>9.9020799999999998</v>
       </c>
       <c r="B2" s="1">
         <v>1.42E-3</v>
@@ -378,7 +391,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>21.341850000000001</v>
+        <v>15.62196</v>
       </c>
       <c r="B3" s="1">
         <v>1.42E-3</v>
@@ -386,7 +399,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>27.061730000000001</v>
+        <v>21.341850000000001</v>
       </c>
       <c r="B4" s="1">
         <v>1.42E-3</v>
@@ -394,7 +407,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>32.781619999999997</v>
+        <v>27.061730000000001</v>
       </c>
       <c r="B5" s="1">
         <v>1.42E-3</v>
@@ -402,7 +415,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>38.5015</v>
+        <v>32.781619999999997</v>
       </c>
       <c r="B6" s="1">
         <v>1.42E-3</v>
@@ -410,7 +423,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>44.221380000000003</v>
+        <v>38.5015</v>
       </c>
       <c r="B7" s="1">
         <v>1.42E-3</v>
@@ -418,7 +431,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>49.941270000000003</v>
+        <v>44.221380000000003</v>
       </c>
       <c r="B8" s="1">
         <v>1.42E-3</v>
@@ -426,7 +439,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>55.661149999999999</v>
+        <v>49.941270000000003</v>
       </c>
       <c r="B9" s="1">
         <v>1.42E-3</v>
@@ -434,7 +447,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>61.381030000000003</v>
+        <v>55.661149999999999</v>
       </c>
       <c r="B10" s="1">
         <v>1.42E-3</v>
@@ -442,7 +455,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>67.100920000000002</v>
+        <v>61.381030000000003</v>
       </c>
       <c r="B11" s="1">
         <v>1.42E-3</v>
@@ -450,23 +463,23 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>72.820800000000006</v>
-      </c>
-      <c r="B12">
+        <v>67.100920000000002</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>78.540689999999998</v>
-      </c>
-      <c r="B13" s="1">
+        <v>72.820800000000006</v>
+      </c>
+      <c r="B13">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>84.260570000000001</v>
+        <v>78.540689999999998</v>
       </c>
       <c r="B14" s="1">
         <v>1.42E-3</v>
@@ -474,7 +487,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>89.980450000000005</v>
+        <v>84.260570000000001</v>
       </c>
       <c r="B15" s="1">
         <v>1.42E-3</v>
@@ -482,7 +495,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>95.700339999999997</v>
+        <v>89.980450000000005</v>
       </c>
       <c r="B16" s="1">
         <v>1.42E-3</v>
@@ -490,7 +503,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>101.42022</v>
+        <v>95.700339999999997</v>
       </c>
       <c r="B17" s="1">
         <v>1.42E-3</v>
@@ -498,7 +511,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>107.14011000000001</v>
+        <v>101.42022</v>
       </c>
       <c r="B18" s="1">
         <v>1.42E-3</v>
@@ -506,23 +519,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>112.85999</v>
-      </c>
-      <c r="B19">
+        <v>107.14011000000001</v>
+      </c>
+      <c r="B19" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>118.57987</v>
-      </c>
-      <c r="B20" s="1">
+        <v>112.85999</v>
+      </c>
+      <c r="B20">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>124.29976000000001</v>
+        <v>118.57987</v>
       </c>
       <c r="B21" s="1">
         <v>1.42E-3</v>
@@ -530,7 +543,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>130.01964000000001</v>
+        <v>124.29976000000001</v>
       </c>
       <c r="B22" s="1">
         <v>1.42E-3</v>
@@ -538,23 +551,23 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>135.73952</v>
-      </c>
-      <c r="B23">
+        <v>130.01964000000001</v>
+      </c>
+      <c r="B23" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>141.45940999999999</v>
-      </c>
-      <c r="B24" s="1">
+        <v>135.73952</v>
+      </c>
+      <c r="B24">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>147.17929000000001</v>
+        <v>141.45940999999999</v>
       </c>
       <c r="B25" s="1">
         <v>1.42E-3</v>
@@ -562,7 +575,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>152.89918</v>
+        <v>147.17929000000001</v>
       </c>
       <c r="B26" s="1">
         <v>1.42E-3</v>
@@ -570,7 +583,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>158.61905999999999</v>
+        <v>152.89918</v>
       </c>
       <c r="B27" s="1">
         <v>1.42E-3</v>
@@ -578,15 +591,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>164.33894000000001</v>
-      </c>
-      <c r="B28">
+        <v>158.61905999999999</v>
+      </c>
+      <c r="B28" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>170.05883</v>
+        <v>164.33894000000001</v>
       </c>
       <c r="B29">
         <v>1.42E-3</v>
@@ -594,15 +607,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>175.77870999999999</v>
-      </c>
-      <c r="B30" s="1">
+        <v>170.05883</v>
+      </c>
+      <c r="B30">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>181.49860000000001</v>
+        <v>175.77870999999999</v>
       </c>
       <c r="B31" s="1">
         <v>1.42E-3</v>
@@ -610,7 +623,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>187.21848</v>
+        <v>181.49860000000001</v>
       </c>
       <c r="B32" s="1">
         <v>1.42E-3</v>
@@ -618,7 +631,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>192.93835999999999</v>
+        <v>187.21848</v>
       </c>
       <c r="B33" s="1">
         <v>1.42E-3</v>
@@ -626,7 +639,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>198.65825000000001</v>
+        <v>192.93835999999999</v>
       </c>
       <c r="B34" s="1">
         <v>1.42E-3</v>
@@ -634,7 +647,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>204.37813</v>
+        <v>198.65825000000001</v>
       </c>
       <c r="B35" s="1">
         <v>1.42E-3</v>
@@ -642,7 +655,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>210.09800999999999</v>
+        <v>204.37813</v>
       </c>
       <c r="B36" s="1">
         <v>1.42E-3</v>
@@ -650,7 +663,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>215.81790000000001</v>
+        <v>210.09800999999999</v>
       </c>
       <c r="B37" s="1">
         <v>1.42E-3</v>
@@ -658,7 +671,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>221.53778</v>
+        <v>215.81790000000001</v>
       </c>
       <c r="B38" s="1">
         <v>1.42E-3</v>
@@ -666,7 +679,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>227.25766999999999</v>
+        <v>221.53778</v>
       </c>
       <c r="B39" s="1">
         <v>1.42E-3</v>
@@ -674,7 +687,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>232.97755000000001</v>
+        <v>227.25766999999999</v>
       </c>
       <c r="B40" s="1">
         <v>1.42E-3</v>
@@ -682,7 +695,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>238.69743</v>
+        <v>232.97755000000001</v>
       </c>
       <c r="B41" s="1">
         <v>1.42E-3</v>
@@ -690,7 +703,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>244.41731999999999</v>
+        <v>238.69743</v>
       </c>
       <c r="B42" s="1">
         <v>1.42E-3</v>
@@ -698,7 +711,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>250.13720000000001</v>
+        <v>244.41731999999999</v>
       </c>
       <c r="B43" s="1">
         <v>1.42E-3</v>
@@ -706,7 +719,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>255.85709</v>
+        <v>250.13720000000001</v>
       </c>
       <c r="B44" s="1">
         <v>1.42E-3</v>
@@ -714,7 +727,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>261.57697000000002</v>
+        <v>255.85709</v>
       </c>
       <c r="B45" s="1">
         <v>1.42E-3</v>
@@ -722,23 +735,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>267.29685000000001</v>
-      </c>
-      <c r="B46">
+        <v>261.57697000000002</v>
+      </c>
+      <c r="B46" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>273.01674000000003</v>
-      </c>
-      <c r="B47" s="1">
+        <v>267.29685000000001</v>
+      </c>
+      <c r="B47">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>278.73662000000002</v>
+        <v>273.01674000000003</v>
       </c>
       <c r="B48" s="1">
         <v>1.42E-3</v>
@@ -746,7 +759,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>284.45650000000001</v>
+        <v>278.73662000000002</v>
       </c>
       <c r="B49" s="1">
         <v>1.42E-3</v>
@@ -754,7 +767,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>290.17639000000003</v>
+        <v>284.45650000000001</v>
       </c>
       <c r="B50" s="1">
         <v>1.42E-3</v>
@@ -762,7 +775,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>295.89627000000002</v>
+        <v>290.17639000000003</v>
       </c>
       <c r="B51" s="1">
         <v>1.42E-3</v>
@@ -770,7 +783,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>301.61615999999998</v>
+        <v>295.89627000000002</v>
       </c>
       <c r="B52" s="1">
         <v>1.42E-3</v>
@@ -778,7 +791,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>307.33604000000003</v>
+        <v>301.61615999999998</v>
       </c>
       <c r="B53" s="1">
         <v>1.42E-3</v>
@@ -786,7 +799,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>313.05592000000001</v>
+        <v>307.33604000000003</v>
       </c>
       <c r="B54" s="1">
         <v>1.42E-3</v>
@@ -794,39 +807,39 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>318.77580999999998</v>
-      </c>
-      <c r="B55">
+        <v>313.05592000000001</v>
+      </c>
+      <c r="B55" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>324.49569000000002</v>
-      </c>
-      <c r="B56" s="1">
+        <v>318.77580999999998</v>
+      </c>
+      <c r="B56">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>330.21557000000001</v>
-      </c>
-      <c r="B57">
+        <v>324.49569000000002</v>
+      </c>
+      <c r="B57" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>335.93545999999998</v>
-      </c>
-      <c r="B58" s="1">
+        <v>330.21557000000001</v>
+      </c>
+      <c r="B58">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>341.65534000000002</v>
+        <v>335.93545999999998</v>
       </c>
       <c r="B59" s="1">
         <v>1.42E-3</v>
@@ -834,7 +847,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>347.37522999999999</v>
+        <v>341.65534000000002</v>
       </c>
       <c r="B60" s="1">
         <v>1.42E-3</v>
@@ -842,23 +855,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>353.09510999999998</v>
-      </c>
-      <c r="B61">
+        <v>347.37522999999999</v>
+      </c>
+      <c r="B61" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>358.81499000000002</v>
-      </c>
-      <c r="B62" s="1">
+        <v>353.09510999999998</v>
+      </c>
+      <c r="B62">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>364.53487999999999</v>
+        <v>358.81499000000002</v>
       </c>
       <c r="B63" s="1">
         <v>1.42E-3</v>
@@ -866,7 +879,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>370.25475999999998</v>
+        <v>364.53487999999999</v>
       </c>
       <c r="B64" s="1">
         <v>1.42E-3</v>
@@ -874,7 +887,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>375.97465</v>
+        <v>370.25475999999998</v>
       </c>
       <c r="B65" s="1">
         <v>1.42E-3</v>
@@ -882,7 +895,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>381.69452999999999</v>
+        <v>375.97465</v>
       </c>
       <c r="B66" s="1">
         <v>1.42E-3</v>
@@ -890,23 +903,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>387.41440999999998</v>
-      </c>
-      <c r="B67">
+        <v>381.69452999999999</v>
+      </c>
+      <c r="B67" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>393.1343</v>
-      </c>
-      <c r="B68" s="1">
+        <v>387.41440999999998</v>
+      </c>
+      <c r="B68">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>398.85417999999999</v>
+        <v>393.1343</v>
       </c>
       <c r="B69" s="1">
         <v>1.42E-3</v>
@@ -914,7 +927,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>404.57405999999997</v>
+        <v>398.85417999999999</v>
       </c>
       <c r="B70" s="1">
         <v>1.42E-3</v>
@@ -922,7 +935,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>410.29395</v>
+        <v>404.57405999999997</v>
       </c>
       <c r="B71" s="1">
         <v>1.42E-3</v>
@@ -930,7 +943,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>416.01382999999998</v>
+        <v>410.29395</v>
       </c>
       <c r="B72" s="1">
         <v>1.42E-3</v>
@@ -938,7 +951,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>421.73372000000001</v>
+        <v>416.01382999999998</v>
       </c>
       <c r="B73" s="1">
         <v>1.42E-3</v>
@@ -946,23 +959,23 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>427.45359999999999</v>
-      </c>
-      <c r="B74">
+        <v>421.73372000000001</v>
+      </c>
+      <c r="B74" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>433.17347999999998</v>
-      </c>
-      <c r="B75" s="1">
+        <v>427.45359999999999</v>
+      </c>
+      <c r="B75">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>438.89337</v>
+        <v>433.17347999999998</v>
       </c>
       <c r="B76" s="1">
         <v>1.42E-3</v>
@@ -970,7 +983,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>444.61324999999999</v>
+        <v>438.89337</v>
       </c>
       <c r="B77" s="1">
         <v>1.42E-3</v>
@@ -978,7 +991,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>450.33314000000001</v>
+        <v>444.61324999999999</v>
       </c>
       <c r="B78" s="1">
         <v>1.42E-3</v>
@@ -986,23 +999,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>456.05302</v>
-      </c>
-      <c r="B79">
+        <v>450.33314000000001</v>
+      </c>
+      <c r="B79" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>461.77289999999999</v>
-      </c>
-      <c r="B80" s="1">
+        <v>456.05302</v>
+      </c>
+      <c r="B80">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>467.49279000000001</v>
+        <v>461.77289999999999</v>
       </c>
       <c r="B81" s="1">
         <v>1.42E-3</v>
@@ -1010,23 +1023,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>473.21267</v>
-      </c>
-      <c r="B82">
+        <v>467.49279000000001</v>
+      </c>
+      <c r="B82" s="1">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>478.93254999999999</v>
-      </c>
-      <c r="B83" s="1">
+        <v>473.21267</v>
+      </c>
+      <c r="B83">
         <v>1.42E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>484.65244000000001</v>
+        <v>478.93254999999999</v>
       </c>
       <c r="B84" s="1">
         <v>1.42E-3</v>
@@ -1034,134 +1047,139 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>490.37232</v>
+        <v>484.65244000000001</v>
       </c>
       <c r="B85" s="1">
-        <v>1.4300000000000001E-3</v>
+        <v>1.42E-3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>496.09221000000002</v>
+        <v>490.37232</v>
       </c>
       <c r="B86" s="1">
-        <v>1.4400000000000001E-3</v>
+        <v>1.4300000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>501.81209000000001</v>
+        <v>496.09221000000002</v>
       </c>
       <c r="B87" s="1">
-        <v>1.4599999999999999E-3</v>
+        <v>1.4400000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>507.53197</v>
-      </c>
-      <c r="B88">
-        <v>1.5E-3</v>
+        <v>501.81209000000001</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1.4599999999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>513.25185999999997</v>
+        <v>507.53197</v>
       </c>
       <c r="B89">
-        <v>1.58E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>518.97173999999995</v>
+        <v>513.25185999999997</v>
       </c>
       <c r="B90">
-        <v>1.75E-3</v>
+        <v>1.58E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>524.69163000000003</v>
-      </c>
-      <c r="B91" s="1">
-        <v>2.0899999999999998E-3</v>
+        <v>518.97173999999995</v>
+      </c>
+      <c r="B91">
+        <v>1.75E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>530.41151000000002</v>
+        <v>524.69163000000003</v>
       </c>
       <c r="B92" s="1">
-        <v>2.8E-3</v>
+        <v>2.0899999999999998E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>536.13139000000001</v>
+        <v>530.41151000000002</v>
       </c>
       <c r="B93" s="1">
-        <v>4.2500000000000003E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>541.85127999999997</v>
+        <v>536.13139000000001</v>
       </c>
       <c r="B94" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>547.57115999999996</v>
+        <v>541.85127999999997</v>
       </c>
       <c r="B95" s="1">
-        <v>1.316E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>553.29103999999995</v>
+        <v>547.57115999999996</v>
       </c>
       <c r="B96" s="1">
-        <v>2.5100000000000001E-2</v>
+        <v>1.316E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>559.01093000000003</v>
+        <v>553.29103999999995</v>
       </c>
       <c r="B97" s="1">
-        <v>4.8410000000000002E-2</v>
+        <v>2.5100000000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>564.73081000000002</v>
+        <v>559.01093000000003</v>
       </c>
       <c r="B98" s="1">
-        <v>9.1859999999999997E-2</v>
+        <v>4.8410000000000002E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>570.45069999999998</v>
+        <v>564.73081000000002</v>
       </c>
       <c r="B99" s="1">
-        <v>0.16625999999999999</v>
+        <v>9.1859999999999997E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>570.45069999999998</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.16625999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>576.17057999999997</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B101" s="1">
         <v>0.27689999999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
@@ -2915,5 +2933,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>